--- a/table_model____spi-3__lasso_($\beta_=_$2.0).xlsx
+++ b/table_model____spi-3__lasso_($\beta_=_$2.0).xlsx
@@ -690,7 +690,7 @@
         <v>0.798426952</v>
       </c>
       <c r="B2">
-        <v>0.854396160024907</v>
+        <v>0.8833950785914961</v>
       </c>
       <c r="C2">
         <v>0.8834057710019219</v>
@@ -845,7 +845,7 @@
         <v>-0.135008744</v>
       </c>
       <c r="B3">
-        <v>0.7487016812585482</v>
+        <v>0.7736611616623972</v>
       </c>
       <c r="C3">
         <v>0.7736685781169461</v>
@@ -1000,7 +1000,7 @@
         <v>0.483128577</v>
       </c>
       <c r="B4">
-        <v>0.2031894414052201</v>
+        <v>0.2105518460493915</v>
       </c>
       <c r="C4">
         <v>0.210549134316589</v>
@@ -1155,7 +1155,7 @@
         <v>0.358803155</v>
       </c>
       <c r="B5">
-        <v>-0.3131618138642972</v>
+        <v>-0.3221709317925977</v>
       </c>
       <c r="C5">
         <v>-0.3221606854380599</v>
@@ -1310,7 +1310,7 @@
         <v>0.9297649529999999</v>
       </c>
       <c r="B6">
-        <v>0.2077608782166064</v>
+        <v>0.2149251723985612</v>
       </c>
       <c r="C6">
         <v>0.2149234211027208</v>
@@ -1465,7 +1465,7 @@
         <v>-0.343866365</v>
       </c>
       <c r="B7">
-        <v>-0.538852383370782</v>
+        <v>-0.5556526060951155</v>
       </c>
       <c r="C7">
         <v>-0.5556593292038888</v>
@@ -1620,7 +1620,7 @@
         <v>-0.394869887</v>
       </c>
       <c r="B8">
-        <v>-0.2541184161897623</v>
+        <v>-0.2622258882598426</v>
       </c>
       <c r="C8">
         <v>-0.2622314272282211</v>
@@ -1775,7 +1775,7 @@
         <v>0.124976886</v>
       </c>
       <c r="B9">
-        <v>0.4438002491937096</v>
+        <v>0.4594347466302878</v>
       </c>
       <c r="C9">
         <v>0.4594314263978831</v>
@@ -1930,7 +1930,7 @@
         <v>0.714385868</v>
       </c>
       <c r="B10">
-        <v>0.8706447527459434</v>
+        <v>0.9007745340493207</v>
       </c>
       <c r="C10">
         <v>0.9007765991207193</v>
@@ -2085,7 +2085,7 @@
         <v>0.495936019</v>
       </c>
       <c r="B11">
-        <v>0.5199839897377655</v>
+        <v>0.5377056971462364</v>
       </c>
       <c r="C11">
         <v>0.5377105672825292</v>
@@ -2240,7 +2240,7 @@
         <v>-1.049232267</v>
       </c>
       <c r="B12">
-        <v>-0.8394553976081159</v>
+        <v>-0.865507539493848</v>
       </c>
       <c r="C12">
         <v>-0.8655139083495746</v>
@@ -2395,7 +2395,7 @@
         <v>-0.962528123</v>
       </c>
       <c r="B13">
-        <v>-0.5489249790004587</v>
+        <v>-0.5632622355798349</v>
       </c>
       <c r="C13">
         <v>-0.5632740257570292</v>
@@ -2550,7 +2550,7 @@
         <v>-0.823266309</v>
       </c>
       <c r="B14">
-        <v>-0.5461749574019873</v>
+        <v>-0.5623665235252416</v>
       </c>
       <c r="C14">
         <v>-0.5623887420773653</v>
@@ -2705,7 +2705,7 @@
         <v>-0.566899673</v>
       </c>
       <c r="B15">
-        <v>-0.4834727249860987</v>
+        <v>-0.4981542579122668</v>
       </c>
       <c r="C15">
         <v>-0.4981608158862509</v>
@@ -2860,7 +2860,7 @@
         <v>1.061843082</v>
       </c>
       <c r="B16">
-        <v>0.9094025468221316</v>
+        <v>0.9423025476386531</v>
       </c>
       <c r="C16">
         <v>0.9423076336459489</v>
@@ -3015,7 +3015,7 @@
         <v>1.223874814</v>
       </c>
       <c r="B17">
-        <v>1.145964543136346</v>
+        <v>1.186902581930848</v>
       </c>
       <c r="C17">
         <v>1.186907857530851</v>
@@ -3170,7 +3170,7 @@
         <v>1.243571118</v>
       </c>
       <c r="B18">
-        <v>1.084184228264966</v>
+        <v>1.124028253452189</v>
       </c>
       <c r="C18">
         <v>1.124036481062818</v>
@@ -3325,7 +3325,7 @@
         <v>-1.371414383</v>
       </c>
       <c r="B19">
-        <v>-1.137551335318052</v>
+        <v>-1.173361664834818</v>
       </c>
       <c r="C19">
         <v>-1.173360351498882</v>
@@ -3480,7 +3480,7 @@
         <v>-1.6161627</v>
       </c>
       <c r="B20">
-        <v>-1.263755687762916</v>
+        <v>-1.303792812116957</v>
       </c>
       <c r="C20">
         <v>-1.303788434266946</v>
@@ -3635,7 +3635,7 @@
         <v>-1.663613601</v>
       </c>
       <c r="B21">
-        <v>-1.219793222781893</v>
+        <v>-1.257076136507502</v>
       </c>
       <c r="C21">
         <v>-1.257081309216755</v>
@@ -3790,7 +3790,7 @@
         <v>-0.39083508</v>
       </c>
       <c r="B22">
-        <v>-0.385842791823156</v>
+        <v>-0.3979610366483977</v>
       </c>
       <c r="C22">
         <v>-0.3979645340126615</v>
@@ -3945,7 +3945,7 @@
         <v>-1.294350414</v>
       </c>
       <c r="B23">
-        <v>-1.284559381792986</v>
+        <v>-1.325454284204314</v>
       </c>
       <c r="C23">
         <v>-1.325463369830243</v>
@@ -4100,7 +4100,7 @@
         <v>-1.735350123</v>
       </c>
       <c r="B24">
-        <v>-1.611018647578476</v>
+        <v>-1.663241938363834</v>
       </c>
       <c r="C24">
         <v>-1.663246197461932</v>
@@ -4255,7 +4255,7 @@
         <v>-1.464171309</v>
       </c>
       <c r="B25">
-        <v>-1.124401520589222</v>
+        <v>-1.160389593668054</v>
       </c>
       <c r="C25">
         <v>-1.160386751747175</v>
@@ -4410,7 +4410,7 @@
         <v>-1.138267628</v>
       </c>
       <c r="B26">
-        <v>-1.105363774201331</v>
+        <v>-1.140330368997835</v>
       </c>
       <c r="C26">
         <v>-1.140329052605126</v>
@@ -4565,7 +4565,7 @@
         <v>-0.231935471</v>
       </c>
       <c r="B27">
-        <v>-0.196108768367123</v>
+        <v>-0.2019427402850872</v>
       </c>
       <c r="C27">
         <v>-0.2019398818673141</v>
@@ -4720,7 +4720,7 @@
         <v>-1.071257154</v>
       </c>
       <c r="B28">
-        <v>-1.218369238112718</v>
+        <v>-1.256466064811198</v>
       </c>
       <c r="C28">
         <v>-1.256469225071842</v>
@@ -4875,7 +4875,7 @@
         <v>-0.788753691</v>
       </c>
       <c r="B29">
-        <v>-0.6580983247197686</v>
+        <v>-0.6775301855129591</v>
       </c>
       <c r="C29">
         <v>-0.6775383182099874</v>
@@ -5030,7 +5030,7 @@
         <v>0.168216722</v>
       </c>
       <c r="B30">
-        <v>0.3267444556453032</v>
+        <v>0.3384905666306841</v>
       </c>
       <c r="C30">
         <v>0.3384802497886409</v>
@@ -5185,7 +5185,7 @@
         <v>0.589617249</v>
       </c>
       <c r="B31">
-        <v>1.087325126893805</v>
+        <v>1.124474408949146</v>
       </c>
       <c r="C31">
         <v>1.124467698211199</v>
@@ -5340,7 +5340,7 @@
         <v>0.34764818</v>
       </c>
       <c r="B32">
-        <v>0.826634286605104</v>
+        <v>0.8548992116866377</v>
       </c>
       <c r="C32">
         <v>0.8548928348822322</v>
@@ -5495,7 +5495,7 @@
         <v>-1.151348471</v>
       </c>
       <c r="B33">
-        <v>-0.3183618323037507</v>
+        <v>-0.3276873662770162</v>
       </c>
       <c r="C33">
         <v>-0.3276903671846292</v>
@@ -5650,7 +5650,7 @@
         <v>-0.696093006</v>
       </c>
       <c r="B34">
-        <v>-0.7032272594113469</v>
+        <v>-0.725223773105192</v>
       </c>
       <c r="C34">
         <v>-0.7252260293187842</v>
@@ -5805,7 +5805,7 @@
         <v>-0.726012958</v>
       </c>
       <c r="B35">
-        <v>-0.4785338913537212</v>
+        <v>-0.493428640959891</v>
       </c>
       <c r="C35">
         <v>-0.4934296036752701</v>
@@ -5960,7 +5960,7 @@
         <v>-0.087224411</v>
       </c>
       <c r="B36">
-        <v>-0.2364030296693923</v>
+        <v>-0.2430999785521488</v>
       </c>
       <c r="C36">
         <v>-0.2430995629312147</v>
@@ -6115,7 +6115,7 @@
         <v>-1.025152274</v>
       </c>
       <c r="B37">
-        <v>-0.7857407220724972</v>
+        <v>-0.8101624106440117</v>
       </c>
       <c r="C37">
         <v>-0.8101712120890554</v>
@@ -6270,7 +6270,7 @@
         <v>-1.065636548</v>
       </c>
       <c r="B38">
-        <v>-0.9273959765207682</v>
+        <v>-0.9557642662274581</v>
       </c>
       <c r="C38">
         <v>-0.9557746023950767</v>
@@ -6425,7 +6425,7 @@
         <v>-1.658517568</v>
       </c>
       <c r="B39">
-        <v>-0.9401121901780194</v>
+        <v>-0.9670371426900926</v>
       </c>
       <c r="C39">
         <v>-0.9670469359846352</v>
@@ -6580,7 +6580,7 @@
         <v>0.670350201</v>
       </c>
       <c r="B40">
-        <v>0.3632356858878162</v>
+        <v>0.3758301326153209</v>
       </c>
       <c r="C40">
         <v>0.3758403966587336</v>
@@ -6735,7 +6735,7 @@
         <v>0.58174072</v>
       </c>
       <c r="B41">
-        <v>0.3707483199591627</v>
+        <v>0.3835135775911769</v>
       </c>
       <c r="C41">
         <v>0.3835207000997148</v>
@@ -6890,7 +6890,7 @@
         <v>1.034492187</v>
       </c>
       <c r="B42">
-        <v>0.6985512326497801</v>
+        <v>0.7225982252851023</v>
       </c>
       <c r="C42">
         <v>0.7226015675831148</v>
@@ -7045,7 +7045,7 @@
         <v>-0.330510864</v>
       </c>
       <c r="B43">
-        <v>-0.2630058641674946</v>
+        <v>-0.2698414022581147</v>
       </c>
       <c r="C43">
         <v>-0.2698512472359814</v>
@@ -7200,7 +7200,7 @@
         <v>0.468647097</v>
       </c>
       <c r="B44">
-        <v>0.4960742278295267</v>
+        <v>0.5137086292164884</v>
       </c>
       <c r="C44">
         <v>0.5137056266706522</v>
@@ -7355,7 +7355,7 @@
         <v>1.030934397</v>
       </c>
       <c r="B45">
-        <v>1.539112802498978</v>
+        <v>1.594028089333894</v>
       </c>
       <c r="C45">
         <v>1.59402887411257</v>
@@ -7510,7 +7510,7 @@
         <v>1.479112841</v>
       </c>
       <c r="B46">
-        <v>2.01061809109709</v>
+        <v>2.08347934806333</v>
       </c>
       <c r="C46">
         <v>2.083485444205059</v>
@@ -7665,7 +7665,7 @@
         <v>1.817472853</v>
       </c>
       <c r="B47">
-        <v>2.264323346220218</v>
+        <v>2.344772587040754</v>
       </c>
       <c r="C47">
         <v>2.344777037178624</v>
@@ -7820,7 +7820,7 @@
         <v>0.369717394</v>
       </c>
       <c r="B48">
-        <v>0.8110940961604179</v>
+        <v>0.8393974088420543</v>
       </c>
       <c r="C48">
         <v>0.8393969474597277</v>
@@ -7975,7 +7975,7 @@
         <v>-0.162350195</v>
       </c>
       <c r="B49">
-        <v>-0.1222247183092578</v>
+        <v>-0.1256096277171001</v>
       </c>
       <c r="C49">
         <v>-0.1256061907299731</v>
@@ -8130,7 +8130,7 @@
         <v>-0.729825744</v>
       </c>
       <c r="B50">
-        <v>-0.9259694623714253</v>
+        <v>-0.955425990945407</v>
       </c>
       <c r="C50">
         <v>-0.9554174507642746</v>
@@ -8285,7 +8285,7 @@
         <v>-0.317430882</v>
       </c>
       <c r="B51">
-        <v>-0.8339198527193534</v>
+        <v>-0.8604335994521285</v>
       </c>
       <c r="C51">
         <v>-0.8604223807792617</v>
@@ -8440,7 +8440,7 @@
         <v>-0.490640104</v>
       </c>
       <c r="B52">
-        <v>-0.6995074775584965</v>
+        <v>-0.7216021831500352</v>
       </c>
       <c r="C52">
         <v>-0.7215836346325329</v>
@@ -8595,7 +8595,7 @@
         <v>-1.100609032</v>
       </c>
       <c r="B53">
-        <v>-0.9724922361560258</v>
+        <v>-1.002862513697061</v>
       </c>
       <c r="C53">
         <v>-1.002858788549921</v>
@@ -8750,7 +8750,7 @@
         <v>-0.351083172</v>
       </c>
       <c r="B54">
-        <v>-0.2489000234385492</v>
+        <v>-0.2564001756977966</v>
       </c>
       <c r="C54">
         <v>-0.2563948618401016</v>
@@ -8905,7 +8905,7 @@
         <v>0.476992209</v>
       </c>
       <c r="B55">
-        <v>0.8436357160097898</v>
+        <v>0.8733550774898844</v>
       </c>
       <c r="C55">
         <v>0.8733549208808252</v>
@@ -9060,7 +9060,7 @@
         <v>1.269210822</v>
       </c>
       <c r="B56">
-        <v>1.563408680478186</v>
+        <v>1.618383604650495</v>
       </c>
       <c r="C56">
         <v>1.618380939603641</v>
@@ -9215,7 +9215,7 @@
         <v>1.68335771</v>
       </c>
       <c r="B57">
-        <v>1.765345675352532</v>
+        <v>1.827627236028162</v>
       </c>
       <c r="C57">
         <v>1.827628728596574</v>
@@ -9370,7 +9370,7 @@
         <v>1.248614285</v>
       </c>
       <c r="B58">
-        <v>1.300232926298784</v>
+        <v>1.34529538913001</v>
       </c>
       <c r="C58">
         <v>1.345296641479614</v>
@@ -9525,7 +9525,7 @@
         <v>0.747520063</v>
       </c>
       <c r="B59">
-        <v>0.703540497576296</v>
+        <v>0.7289340008002547</v>
       </c>
       <c r="C59">
         <v>0.728937485432101</v>
@@ -9680,7 +9680,7 @@
         <v>-0.631971431</v>
       </c>
       <c r="B60">
-        <v>-0.4793023090786931</v>
+        <v>-0.4940084644044236</v>
       </c>
       <c r="C60">
         <v>-0.4940113648312989</v>
@@ -9835,7 +9835,7 @@
         <v>-0.10813702</v>
       </c>
       <c r="B61">
-        <v>0.1689194661109384</v>
+        <v>0.175366130815175</v>
       </c>
       <c r="C61">
         <v>0.1753682342522982</v>
@@ -9990,7 +9990,7 @@
         <v>0.399434913</v>
       </c>
       <c r="B62">
-        <v>0.6653482579795099</v>
+        <v>0.688201845923031</v>
       </c>
       <c r="C62">
         <v>0.6881994519788677</v>
@@ -10145,7 +10145,7 @@
         <v>0.598079881</v>
       </c>
       <c r="B63">
-        <v>0.8690449802062683</v>
+        <v>0.8984675767298729</v>
       </c>
       <c r="C63">
         <v>0.8984620899316487</v>
@@ -10300,7 +10300,7 @@
         <v>-0.364643642</v>
       </c>
       <c r="B64">
-        <v>-0.1243228173366605</v>
+        <v>-0.127763737510738</v>
       </c>
       <c r="C64">
         <v>-0.1277776475017999</v>
@@ -10455,7 +10455,7 @@
         <v>2.015990384</v>
       </c>
       <c r="B65">
-        <v>1.804319707869851</v>
+        <v>1.869754431625355</v>
       </c>
       <c r="C65">
         <v>1.869753898239027</v>
@@ -10610,7 +10610,7 @@
         <v>2.364869298</v>
       </c>
       <c r="B66">
-        <v>1.880339819416051</v>
+        <v>1.949028540012478</v>
       </c>
       <c r="C66">
         <v>1.949028603255708</v>
@@ -10765,7 +10765,7 @@
         <v>2.827580557</v>
       </c>
       <c r="B67">
-        <v>2.081693624197862</v>
+        <v>2.155690906379023</v>
       </c>
       <c r="C67">
         <v>2.155689378600972</v>
@@ -10920,7 +10920,7 @@
         <v>0.626809444</v>
       </c>
       <c r="B68">
-        <v>0.454155049744124</v>
+        <v>0.4701190424666771</v>
       </c>
       <c r="C68">
         <v>0.4701091795546933</v>
@@ -11075,7 +11075,7 @@
         <v>0.49739888</v>
       </c>
       <c r="B69">
-        <v>0.3769534970625869</v>
+        <v>0.3903288936073673</v>
       </c>
       <c r="C69">
         <v>0.3903198135167223</v>
@@ -11230,7 +11230,7 @@
         <v>0.325808278</v>
       </c>
       <c r="B70">
-        <v>0.01090133607282559</v>
+        <v>0.01276558797508542</v>
       </c>
       <c r="C70">
         <v>0.01275824234907959</v>
@@ -11385,7 +11385,7 @@
         <v>0.365489314</v>
       </c>
       <c r="B71">
-        <v>0.09054556297480398</v>
+        <v>0.09420807993398615</v>
       </c>
       <c r="C71">
         <v>0.09420566428618157</v>
@@ -11540,7 +11540,7 @@
         <v>1.026844468</v>
       </c>
       <c r="B72">
-        <v>0.6910903373938379</v>
+        <v>0.7152192026080975</v>
       </c>
       <c r="C72">
         <v>0.7152213667669649</v>
@@ -11695,7 +11695,7 @@
         <v>0.699083059</v>
       </c>
       <c r="B73">
-        <v>0.5984394528846536</v>
+        <v>0.6230233909843215</v>
       </c>
       <c r="C73">
         <v>0.6230336052952591</v>
@@ -11850,7 +11850,7 @@
         <v>0.662278742</v>
       </c>
       <c r="B74">
-        <v>0.6214743357328404</v>
+        <v>0.6463247136355199</v>
       </c>
       <c r="C74">
         <v>0.6463297079854725</v>
@@ -12005,7 +12005,7 @@
         <v>0.456505507</v>
       </c>
       <c r="B75">
-        <v>0.3255844118827894</v>
+        <v>0.3384722415489917</v>
       </c>
       <c r="C75">
         <v>0.3384774496064605</v>
@@ -12160,7 +12160,7 @@
         <v>-0.181605646</v>
       </c>
       <c r="B76">
-        <v>-0.1681440772865232</v>
+        <v>-0.1719918537984761</v>
       </c>
       <c r="C76">
         <v>-0.1720031849378609</v>
@@ -12315,7 +12315,7 @@
         <v>0.647849754</v>
       </c>
       <c r="B77">
-        <v>0.4217457315815077</v>
+        <v>0.4370149967340428</v>
       </c>
       <c r="C77">
         <v>0.4370177443327898</v>
@@ -12470,7 +12470,7 @@
         <v>-0.151031448</v>
       </c>
       <c r="B78">
-        <v>-0.4457945235418825</v>
+        <v>-0.4595275989506945</v>
       </c>
       <c r="C78">
         <v>-0.459527160937282</v>
@@ -12625,7 +12625,7 @@
         <v>0.204622557</v>
       </c>
       <c r="B79">
-        <v>-0.02056871215987922</v>
+        <v>-0.01988028872083243</v>
       </c>
       <c r="C79">
         <v>-0.01987879031892115</v>
@@ -12780,7 +12780,7 @@
         <v>0.6727765610000001</v>
       </c>
       <c r="B80">
-        <v>0.6042760075768602</v>
+        <v>0.6248252517479855</v>
       </c>
       <c r="C80">
         <v>0.6248165728433096</v>
@@ -12935,7 +12935,7 @@
         <v>1.409854459</v>
       </c>
       <c r="B81">
-        <v>1.285479324915841</v>
+        <v>1.328724940832351</v>
       </c>
       <c r="C81">
         <v>1.32871701950333</v>
@@ -13090,7 +13090,7 @@
         <v>1.436857019</v>
       </c>
       <c r="B82">
-        <v>1.194957900542866</v>
+        <v>1.234484010956354</v>
       </c>
       <c r="C82">
         <v>1.234478371744727</v>
@@ -13245,7 +13245,7 @@
         <v>-0.078187413</v>
       </c>
       <c r="B83">
-        <v>-0.3833893732946195</v>
+        <v>-0.3948208933108187</v>
       </c>
       <c r="C83">
         <v>-0.3948354774482993</v>
@@ -13400,7 +13400,7 @@
         <v>-0.089819775</v>
       </c>
       <c r="B84">
-        <v>-0.1988660149949393</v>
+        <v>-0.2049195052343094</v>
       </c>
       <c r="C84">
         <v>-0.2049310028684923</v>
@@ -13555,7 +13555,7 @@
         <v>-0.951749297</v>
       </c>
       <c r="B85">
-        <v>-0.8865272794104255</v>
+        <v>-0.9148164282347584</v>
       </c>
       <c r="C85">
         <v>-0.9148290739145784</v>
@@ -13710,7 +13710,7 @@
         <v>-0.611776729</v>
       </c>
       <c r="B86">
-        <v>-0.3706736524503295</v>
+        <v>-0.3825898103049017</v>
       </c>
       <c r="C86">
         <v>-0.3826012893718022</v>
@@ -13865,7 +13865,7 @@
         <v>-1.503113365</v>
       </c>
       <c r="B87">
-        <v>-1.443574264095737</v>
+        <v>-1.489439007415337</v>
       </c>
       <c r="C87">
         <v>-1.489460966181259</v>
@@ -14020,7 +14020,7 @@
         <v>-0.95035541</v>
       </c>
       <c r="B88">
-        <v>-1.239526447350195</v>
+        <v>-1.278726656137989</v>
       </c>
       <c r="C88">
         <v>-1.278754590147773</v>
@@ -14175,7 +14175,7 @@
         <v>-0.869041164</v>
       </c>
       <c r="B89">
-        <v>-0.6840717848443906</v>
+        <v>-0.7054162657870815</v>
       </c>
       <c r="C89">
         <v>-0.7054307167108445</v>
@@ -14330,7 +14330,7 @@
         <v>-0.621619324</v>
       </c>
       <c r="B90">
-        <v>-0.575451304611631</v>
+        <v>-0.593032097697648</v>
       </c>
       <c r="C90">
         <v>-0.5930467919446213</v>
@@ -14485,7 +14485,7 @@
         <v>0.820733698</v>
       </c>
       <c r="B91">
-        <v>0.3506229429528982</v>
+        <v>0.3625917913938151</v>
       </c>
       <c r="C91">
         <v>0.3625813216971389</v>
@@ -14640,7 +14640,7 @@
         <v>1.157975086</v>
       </c>
       <c r="B92">
-        <v>0.6456817336096243</v>
+        <v>0.667245399029806</v>
       </c>
       <c r="C92">
         <v>0.6672329358924802</v>
@@ -14795,7 +14795,7 @@
         <v>1.16180901</v>
       </c>
       <c r="B93">
-        <v>0.6746593462137157</v>
+        <v>0.697065603110913</v>
       </c>
       <c r="C93">
         <v>0.6970543700224926</v>
@@ -14950,7 +14950,7 @@
         <v>0.673844651</v>
       </c>
       <c r="B94">
-        <v>0.4277468368267804</v>
+        <v>0.4423555056875265</v>
       </c>
       <c r="C94">
         <v>0.4423458827911016</v>
@@ -15105,7 +15105,7 @@
         <v>0.576154411</v>
       </c>
       <c r="B95">
-        <v>0.2646146562309558</v>
+        <v>0.2737266415475333</v>
       </c>
       <c r="C95">
         <v>0.2737156641435605</v>
@@ -15260,7 +15260,7 @@
         <v>-0.247999935</v>
       </c>
       <c r="B96">
-        <v>-0.3468118178926962</v>
+        <v>-0.3575617979965108</v>
       </c>
       <c r="C96">
         <v>-0.3575739942688145</v>
@@ -15415,7 +15415,7 @@
         <v>-1.022406207</v>
       </c>
       <c r="B97">
-        <v>-1.089116061932398</v>
+        <v>-1.123778061959173</v>
       </c>
       <c r="C97">
         <v>-1.123791575131762</v>
@@ -15570,7 +15570,7 @@
         <v>-0.898568511</v>
       </c>
       <c r="B98">
-        <v>-0.738920425039532</v>
+        <v>-0.7626364663500418</v>
       </c>
       <c r="C98">
         <v>-0.7626499763947205</v>
@@ -15725,7 +15725,7 @@
         <v>-0.35746994</v>
       </c>
       <c r="B99">
-        <v>-0.1715102078160751</v>
+        <v>-0.1766820870840194</v>
       </c>
       <c r="C99">
         <v>-0.1766926619810748</v>
@@ -15880,7 +15880,7 @@
         <v>-0.676801503</v>
       </c>
       <c r="B100">
-        <v>0.05616413637168208</v>
+        <v>0.05875504377207696</v>
       </c>
       <c r="C100">
         <v>0.05874152067281773</v>
@@ -16035,7 +16035,7 @@
         <v>-0.963128334</v>
       </c>
       <c r="B101">
-        <v>-0.1840523078736946</v>
+        <v>-0.1893661712397061</v>
       </c>
       <c r="C101">
         <v>-0.1893775192232449</v>
@@ -16190,7 +16190,7 @@
         <v>-1.089650457</v>
       </c>
       <c r="B102">
-        <v>-0.4454173864791028</v>
+        <v>-0.4589032049653482</v>
       </c>
       <c r="C102">
         <v>-0.4589172672962356</v>
@@ -16345,7 +16345,7 @@
         <v>-1.754660522</v>
       </c>
       <c r="B103">
-        <v>-1.016030901410972</v>
+        <v>-1.046907065762377</v>
       </c>
       <c r="C103">
         <v>-1.046922517385005</v>
@@ -16500,7 +16500,7 @@
         <v>-1.724252511</v>
       </c>
       <c r="B104">
-        <v>-1.568489570270188</v>
+        <v>-1.615934318215019</v>
       </c>
       <c r="C104">
         <v>-1.615951918727935</v>
@@ -16655,7 +16655,7 @@
         <v>-1.868408762</v>
       </c>
       <c r="B105">
-        <v>-1.788137174662441</v>
+        <v>-1.841984913935895</v>
       </c>
       <c r="C105">
         <v>-1.842006927181755</v>
@@ -16810,7 +16810,7 @@
         <v>-0.07703964000000001</v>
       </c>
       <c r="B106">
-        <v>-0.4300580789049849</v>
+        <v>-0.4426286129516878</v>
       </c>
       <c r="C106">
         <v>-0.4426432522835715</v>
@@ -16965,7 +16965,7 @@
         <v>-0.058419279</v>
       </c>
       <c r="B107">
-        <v>-0.513745998931694</v>
+        <v>-0.5292662414101115</v>
       </c>
       <c r="C107">
         <v>-0.5292815956348434</v>
@@ -17120,7 +17120,7 @@
         <v>1.204247991</v>
       </c>
       <c r="B108">
-        <v>0.7001891557328456</v>
+        <v>0.7230789784347936</v>
       </c>
       <c r="C108">
         <v>0.7230714492485817</v>
@@ -17275,7 +17275,7 @@
         <v>1.183657404</v>
       </c>
       <c r="B109">
-        <v>1.299910105634535</v>
+        <v>1.342715688942997</v>
       </c>
       <c r="C109">
         <v>1.342710432468172</v>
@@ -17430,7 +17430,7 @@
         <v>1.235714724</v>
       </c>
       <c r="B110">
-        <v>1.552780817384497</v>
+        <v>1.604571030033696</v>
       </c>
       <c r="C110">
         <v>1.604567990263743</v>
@@ -17585,7 +17585,7 @@
         <v>1.193822144</v>
       </c>
       <c r="B111">
-        <v>1.06452504753504</v>
+        <v>1.100424581959709</v>
       </c>
       <c r="C111">
         <v>1.100419336138105</v>
@@ -17740,7 +17740,7 @@
         <v>1.680661976</v>
       </c>
       <c r="B112">
-        <v>1.54835752459786</v>
+        <v>1.600933974533124</v>
       </c>
       <c r="C112">
         <v>1.600926434174641</v>
@@ -17895,7 +17895,7 @@
         <v>1.735508276</v>
       </c>
       <c r="B113">
-        <v>1.744796298874211</v>
+        <v>1.804221614804293</v>
       </c>
       <c r="C113">
         <v>1.804215605702203</v>
@@ -18050,7 +18050,7 @@
         <v>1.120645867</v>
       </c>
       <c r="B114">
-        <v>1.640671784591768</v>
+        <v>1.695787125639826</v>
       </c>
       <c r="C114">
         <v>1.69577988841909</v>
@@ -18205,7 +18205,7 @@
         <v>0.220765723</v>
       </c>
       <c r="B115">
-        <v>0.5302506538646548</v>
+        <v>0.5479980053863395</v>
       </c>
       <c r="C115">
         <v>0.5479880371786037</v>
@@ -18360,7 +18360,7 @@
         <v>0.291028273</v>
       </c>
       <c r="B116">
-        <v>0.4371530472446074</v>
+        <v>0.4520356295363708</v>
       </c>
       <c r="C116">
         <v>0.4520228849893051</v>
@@ -18515,7 +18515,7 @@
         <v>0.583045483</v>
       </c>
       <c r="B117">
-        <v>1.139507282713535</v>
+        <v>1.17697108482315</v>
       </c>
       <c r="C117">
         <v>1.176961211508471</v>
@@ -18670,7 +18670,7 @@
         <v>1.459657324</v>
       </c>
       <c r="B118">
-        <v>1.505377784548952</v>
+        <v>1.55516476307115</v>
       </c>
       <c r="C118">
         <v>1.555160641646944</v>
@@ -18825,7 +18825,7 @@
         <v>0.957846139</v>
       </c>
       <c r="B119">
-        <v>1.310025743567828</v>
+        <v>1.353133784813052</v>
       </c>
       <c r="C119">
         <v>1.353128043217277</v>
@@ -18980,7 +18980,7 @@
         <v>1.102629823</v>
       </c>
       <c r="B120">
-        <v>0.5132846756434704</v>
+        <v>0.5300983206323587</v>
       </c>
       <c r="C120">
         <v>0.5300900009676802</v>
@@ -19135,7 +19135,7 @@
         <v>1.64061108</v>
       </c>
       <c r="B121">
-        <v>1.420262400728441</v>
+        <v>1.467119297739529</v>
       </c>
       <c r="C121">
         <v>1.467114377409169</v>
@@ -19290,7 +19290,7 @@
         <v>1.886908677</v>
       </c>
       <c r="B122">
-        <v>1.489534507756265</v>
+        <v>1.539167779183578</v>
       </c>
       <c r="C122">
         <v>1.539164500354723</v>
@@ -19445,7 +19445,7 @@
         <v>1.733513011</v>
       </c>
       <c r="B123">
-        <v>1.858746992762322</v>
+        <v>1.922219884065255</v>
       </c>
       <c r="C123">
         <v>1.922216937068904</v>
@@ -19600,7 +19600,7 @@
         <v>-0.0362457</v>
       </c>
       <c r="B124">
-        <v>0.456808475068188</v>
+        <v>0.4725728045386651</v>
       </c>
       <c r="C124">
         <v>0.4725614890095509</v>
@@ -19755,7 +19755,7 @@
         <v>0.430903942</v>
       </c>
       <c r="B125">
-        <v>0.8951779571229046</v>
+        <v>0.9254103838204238</v>
       </c>
       <c r="C125">
         <v>0.9254028028654553</v>
@@ -19910,7 +19910,7 @@
         <v>-0.243546309</v>
       </c>
       <c r="B126">
-        <v>0.00732477301212173</v>
+        <v>0.008236104198193567</v>
       </c>
       <c r="C126">
         <v>0.008223985834558321</v>
@@ -20065,7 +20065,7 @@
         <v>-0.931687809</v>
       </c>
       <c r="B127">
-        <v>-0.8838735659326582</v>
+        <v>-0.9106811909267245</v>
       </c>
       <c r="C127">
         <v>-0.9106960413886589</v>
@@ -20220,7 +20220,7 @@
         <v>0.141116369</v>
       </c>
       <c r="B128">
-        <v>0.1407322291740727</v>
+        <v>0.1461908068160387</v>
       </c>
       <c r="C128">
         <v>0.14617761038784</v>
@@ -20375,7 +20375,7 @@
         <v>0.56391939</v>
       </c>
       <c r="B129">
-        <v>0.5683932990349727</v>
+        <v>0.5873919487366224</v>
       </c>
       <c r="C129">
         <v>0.5873803864478774</v>
@@ -20530,7 +20530,7 @@
         <v>1.941603295</v>
       </c>
       <c r="B130">
-        <v>1.760233577234443</v>
+        <v>1.818525040523871</v>
       </c>
       <c r="C130">
         <v>1.81852213311897</v>
@@ -20685,7 +20685,7 @@
         <v>0.686945786</v>
       </c>
       <c r="B131">
-        <v>0.8047553091691709</v>
+        <v>0.8312934070473759</v>
       </c>
       <c r="C131">
         <v>0.8312852086440379</v>
@@ -20840,7 +20840,7 @@
         <v>0.489776809</v>
       </c>
       <c r="B132">
-        <v>1.135103843262415</v>
+        <v>1.172258414965312</v>
       </c>
       <c r="C132">
         <v>1.172252667210036</v>
@@ -20995,7 +20995,7 @@
         <v>-0.927615797</v>
       </c>
       <c r="B133">
-        <v>0.1190906633611735</v>
+        <v>0.1229385674984841</v>
       </c>
       <c r="C133">
         <v>0.122929685540746</v>
@@ -21150,7 +21150,7 @@
         <v>-0.570785532</v>
       </c>
       <c r="B134">
-        <v>0.1141869517683268</v>
+        <v>0.1179833422271376</v>
       </c>
       <c r="C134">
         <v>0.1179742795571978</v>
@@ -21305,7 +21305,7 @@
         <v>0.629936161</v>
       </c>
       <c r="B135">
-        <v>0.2532341855687547</v>
+        <v>0.2619528087184982</v>
       </c>
       <c r="C135">
         <v>0.2619444229589522</v>
@@ -21460,7 +21460,7 @@
         <v>1.229927464</v>
       </c>
       <c r="B136">
-        <v>1.095206569224742</v>
+        <v>1.132321445771324</v>
       </c>
       <c r="C136">
         <v>1.132312624676388</v>
@@ -21615,7 +21615,7 @@
         <v>0.831135585</v>
       </c>
       <c r="B137">
-        <v>0.6140219637487743</v>
+        <v>0.6348431870438699</v>
       </c>
       <c r="C137">
         <v>0.6348348778204236</v>
@@ -21770,7 +21770,7 @@
         <v>-0.615633494</v>
       </c>
       <c r="B138">
-        <v>-0.1983547699175099</v>
+        <v>-0.2040123955994738</v>
       </c>
       <c r="C138">
         <v>-0.2040253518261614</v>
@@ -21925,7 +21925,7 @@
         <v>-0.504548817</v>
       </c>
       <c r="B139">
-        <v>-0.4718786455394954</v>
+        <v>-0.4859110370450214</v>
       </c>
       <c r="C139">
         <v>-0.4859242052738732</v>
